--- a/docs/画面項目定義書/virtual_network_management/virtual_network_dashboard.xlsx
+++ b/docs/画面項目定義書/virtual_network_management/virtual_network_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_network_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48621C2-0CDA-46D0-ADC6-2999FF02416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080A6334-7A01-443A-AFDC-53B68BDD74DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
-  <si>
-    <t>日本工学院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>画面名</t>
   </si>
@@ -145,25 +142,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>仮想ネットワーク新規作成画面に遷移する</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>操作ボタン</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -275,19 +253,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>仮想ネットワーク編集モーダルへ遷移</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>仮想ネットワークエンティティを取得し、繰り返し表示</t>
     <rPh sb="15" eb="17">
       <t>シュトク</t>
@@ -316,6 +281,48 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>日本工学院</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>virtual_network_dashboard.html</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mo_virtual_network_createに遷移する</t>
+    <rPh sb="26" eb="28">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mo_virtual_network_editへ遷移</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想ネットワークエンティティを取得し、繰り返し表示
+押下時、virtual_network_detailへ遷移</t>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1280,21 +1287,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1303,7 +1312,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1312,7 +1321,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1321,7 +1330,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1330,31 +1339,33 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="41"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="E6" s="26"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1363,229 +1374,229 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5"/>
       <c r="B14" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="B15" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
       <c r="B16" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="13"/>
       <c r="C22" s="17"/>
@@ -1594,7 +1605,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="13"/>
       <c r="C23" s="17"/>
@@ -1603,7 +1614,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1612,7 +1623,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1621,7 +1632,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1630,7 +1641,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1639,7 +1650,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
